--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.2028453892852</v>
+        <v>161.9042856666667</v>
       </c>
       <c r="N2">
-        <v>60.2028453892852</v>
+        <v>485.712857</v>
       </c>
       <c r="O2">
-        <v>0.1959046222930941</v>
+        <v>0.3829374249648381</v>
       </c>
       <c r="P2">
-        <v>0.1959046222930941</v>
+        <v>0.3829374249648381</v>
       </c>
       <c r="Q2">
-        <v>1025.139970511897</v>
+        <v>13123.69840961198</v>
       </c>
       <c r="R2">
-        <v>1025.139970511897</v>
+        <v>118113.2856865078</v>
       </c>
       <c r="S2">
-        <v>0.02101881534700798</v>
+        <v>0.1357825987042191</v>
       </c>
       <c r="T2">
-        <v>0.02101881534700798</v>
+        <v>0.1357825987042191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>213.811456906977</v>
+        <v>0.307744</v>
       </c>
       <c r="N3">
-        <v>213.811456906977</v>
+        <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.6957586877571806</v>
+        <v>0.0007278787860563825</v>
       </c>
       <c r="P3">
-        <v>0.6957586877571806</v>
+        <v>0.0007278787860563825</v>
       </c>
       <c r="Q3">
-        <v>3640.802510436401</v>
+        <v>24.94522876116266</v>
       </c>
       <c r="R3">
-        <v>3640.802510436401</v>
+        <v>224.5070588504639</v>
       </c>
       <c r="S3">
-        <v>0.07464868982093577</v>
+        <v>0.0002580924889268343</v>
       </c>
       <c r="T3">
-        <v>0.07464868982093577</v>
+        <v>0.0002580924889268343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.2926141235829</v>
+        <v>225.0171966666667</v>
       </c>
       <c r="N4">
-        <v>33.2926141235829</v>
+        <v>675.05159</v>
       </c>
       <c r="O4">
-        <v>0.1083366899497253</v>
+        <v>0.5322126311204886</v>
       </c>
       <c r="P4">
-        <v>0.1083366899497253</v>
+        <v>0.5322126311204886</v>
       </c>
       <c r="Q4">
-        <v>566.9099066700933</v>
+        <v>18239.52845886688</v>
       </c>
       <c r="R4">
-        <v>566.9099066700933</v>
+        <v>164155.7561298019</v>
       </c>
       <c r="S4">
-        <v>0.01162355872314505</v>
+        <v>0.1887128533425151</v>
       </c>
       <c r="T4">
-        <v>0.01162355872314505</v>
+        <v>0.1887128533425151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.863246657766</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>122.863246657766</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.2028453892852</v>
+        <v>35.56644499999999</v>
       </c>
       <c r="N5">
-        <v>60.2028453892852</v>
+        <v>106.699335</v>
       </c>
       <c r="O5">
-        <v>0.1959046222930941</v>
+        <v>0.08412206512861695</v>
       </c>
       <c r="P5">
-        <v>0.1959046222930941</v>
+        <v>0.08412206512861695</v>
       </c>
       <c r="Q5">
-        <v>7396.717042563098</v>
+        <v>2882.958259937838</v>
       </c>
       <c r="R5">
-        <v>7396.717042563098</v>
+        <v>25946.62433944054</v>
       </c>
       <c r="S5">
-        <v>0.1516575630292395</v>
+        <v>0.02982814388689743</v>
       </c>
       <c r="T5">
-        <v>0.1516575630292395</v>
+        <v>0.02982814388689743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>213.811456906977</v>
+        <v>161.9042856666667</v>
       </c>
       <c r="N6">
-        <v>213.811456906977</v>
+        <v>485.712857</v>
       </c>
       <c r="O6">
-        <v>0.6957586877571806</v>
+        <v>0.3829374249648381</v>
       </c>
       <c r="P6">
-        <v>0.6957586877571806</v>
+        <v>0.3829374249648381</v>
       </c>
       <c r="Q6">
-        <v>26269.56976821822</v>
+        <v>19917.18221402199</v>
       </c>
       <c r="R6">
-        <v>26269.56976821822</v>
+        <v>179254.6399261979</v>
       </c>
       <c r="S6">
-        <v>0.5386144839594997</v>
+        <v>0.2060704746083324</v>
       </c>
       <c r="T6">
-        <v>0.5386144839594997</v>
+        <v>0.2060704746083324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>33.2926141235829</v>
+        <v>0.307744</v>
       </c>
       <c r="N7">
-        <v>33.2926141235829</v>
+        <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.1083366899497253</v>
+        <v>0.0007278787860563825</v>
       </c>
       <c r="P7">
-        <v>0.1083366899497253</v>
+        <v>0.0007278787860563825</v>
       </c>
       <c r="Q7">
-        <v>4090.43866094759</v>
+        <v>37.858128943488</v>
       </c>
       <c r="R7">
-        <v>4090.43866094759</v>
+        <v>340.723160491392</v>
       </c>
       <c r="S7">
-        <v>0.08386774233355505</v>
+        <v>0.0003916940918317092</v>
       </c>
       <c r="T7">
-        <v>0.08386774233355505</v>
+        <v>0.0003916940918317092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.2028453892852</v>
+        <v>225.0171966666667</v>
       </c>
       <c r="N8">
-        <v>60.2028453892852</v>
+        <v>675.05159</v>
       </c>
       <c r="O8">
-        <v>0.1959046222930941</v>
+        <v>0.5322126311204886</v>
       </c>
       <c r="P8">
-        <v>0.1959046222930941</v>
+        <v>0.5322126311204886</v>
       </c>
       <c r="Q8">
-        <v>14.28878210393794</v>
+        <v>27681.22220387356</v>
       </c>
       <c r="R8">
-        <v>14.28878210393794</v>
+        <v>249130.999834862</v>
       </c>
       <c r="S8">
-        <v>0.000292968064084297</v>
+        <v>0.2864000808947278</v>
       </c>
       <c r="T8">
-        <v>0.000292968064084297</v>
+        <v>0.2864000808947278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>213.811456906977</v>
+        <v>35.56644499999999</v>
       </c>
       <c r="N9">
-        <v>213.811456906977</v>
+        <v>106.699335</v>
       </c>
       <c r="O9">
-        <v>0.6957586877571806</v>
+        <v>0.08412206512861695</v>
       </c>
       <c r="P9">
-        <v>0.6957586877571806</v>
+        <v>0.08412206512861695</v>
       </c>
       <c r="Q9">
-        <v>50.74685921096103</v>
+        <v>4375.32189375414</v>
       </c>
       <c r="R9">
-        <v>50.74685921096103</v>
+        <v>39377.89704378726</v>
       </c>
       <c r="S9">
-        <v>0.001040481196595214</v>
+        <v>0.04526868557618487</v>
       </c>
       <c r="T9">
-        <v>0.001040481196595214</v>
+        <v>0.04526868557618487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H10">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2926141235829</v>
+        <v>161.9042856666667</v>
       </c>
       <c r="N10">
-        <v>33.2926141235829</v>
+        <v>485.712857</v>
       </c>
       <c r="O10">
-        <v>0.1083366899497253</v>
+        <v>0.3829374249648381</v>
       </c>
       <c r="P10">
-        <v>0.1083366899497253</v>
+        <v>0.3829374249648381</v>
       </c>
       <c r="Q10">
-        <v>7.901801082761263</v>
+        <v>58.68490674464445</v>
       </c>
       <c r="R10">
-        <v>7.901801082761263</v>
+        <v>528.1641607018</v>
       </c>
       <c r="S10">
-        <v>0.0001620134836654672</v>
+        <v>0.0006071755761063829</v>
       </c>
       <c r="T10">
-        <v>0.0001620134836654672</v>
+        <v>0.0006071755761063829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H11">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I11">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J11">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>60.2028453892852</v>
+        <v>0.307744</v>
       </c>
       <c r="N11">
-        <v>60.2028453892852</v>
+        <v>0.9232319999999999</v>
       </c>
       <c r="O11">
-        <v>0.1959046222930941</v>
+        <v>0.0007278787860563825</v>
       </c>
       <c r="P11">
-        <v>0.1959046222930941</v>
+        <v>0.0007278787860563825</v>
       </c>
       <c r="Q11">
-        <v>1118.610522201953</v>
+        <v>0.1115469418666667</v>
       </c>
       <c r="R11">
-        <v>1118.610522201953</v>
+        <v>1.0039224768</v>
       </c>
       <c r="S11">
-        <v>0.02293527585276236</v>
+        <v>1.154105586049677E-06</v>
       </c>
       <c r="T11">
-        <v>0.02293527585276236</v>
+        <v>1.154105586049677E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H12">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I12">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J12">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>213.811456906977</v>
+        <v>225.0171966666667</v>
       </c>
       <c r="N12">
-        <v>213.811456906977</v>
+        <v>675.05159</v>
       </c>
       <c r="O12">
-        <v>0.6957586877571806</v>
+        <v>0.5322126311204886</v>
       </c>
       <c r="P12">
-        <v>0.6957586877571806</v>
+        <v>0.5322126311204886</v>
       </c>
       <c r="Q12">
-        <v>3972.764807326554</v>
+        <v>81.56123321844444</v>
       </c>
       <c r="R12">
-        <v>3972.764807326554</v>
+        <v>734.0510989659999</v>
       </c>
       <c r="S12">
-        <v>0.08145503278015001</v>
+        <v>0.0008438624429078676</v>
       </c>
       <c r="T12">
-        <v>0.08145503278015001</v>
+        <v>0.0008438624429078676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H13">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I13">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J13">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2926141235829</v>
+        <v>35.56644499999999</v>
       </c>
       <c r="N13">
-        <v>33.2926141235829</v>
+        <v>106.699335</v>
       </c>
       <c r="O13">
-        <v>0.1083366899497253</v>
+        <v>0.08412206512861695</v>
       </c>
       <c r="P13">
-        <v>0.1083366899497253</v>
+        <v>0.08412206512861695</v>
       </c>
       <c r="Q13">
-        <v>618.5998058636171</v>
+        <v>12.89165076433333</v>
       </c>
       <c r="R13">
-        <v>618.5998058636171</v>
+        <v>116.024856879</v>
       </c>
       <c r="S13">
-        <v>0.01268337540935973</v>
+        <v>0.0001333817486301231</v>
       </c>
       <c r="T13">
-        <v>0.01268337540935973</v>
+        <v>0.0001333817486301231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H14">
+        <v>72.491192</v>
+      </c>
+      <c r="I14">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J14">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>161.9042856666667</v>
+      </c>
+      <c r="N14">
+        <v>485.712857</v>
+      </c>
+      <c r="O14">
+        <v>0.3829374249648381</v>
+      </c>
+      <c r="P14">
+        <v>0.3829374249648381</v>
+      </c>
+      <c r="Q14">
+        <v>3912.211552628394</v>
+      </c>
+      <c r="R14">
+        <v>35209.90397365555</v>
+      </c>
+      <c r="S14">
+        <v>0.04047717607618026</v>
+      </c>
+      <c r="T14">
+        <v>0.04047717607618027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H15">
+        <v>72.491192</v>
+      </c>
+      <c r="I15">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J15">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.307744</v>
+      </c>
+      <c r="N15">
+        <v>0.9232319999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0007278787860563825</v>
+      </c>
+      <c r="P15">
+        <v>0.0007278787860563825</v>
+      </c>
+      <c r="Q15">
+        <v>7.436243130282666</v>
+      </c>
+      <c r="R15">
+        <v>66.92618817254399</v>
+      </c>
+      <c r="S15">
+        <v>7.693809971178928E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.693809971178928E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H16">
+        <v>72.491192</v>
+      </c>
+      <c r="I16">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J16">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>225.0171966666667</v>
+      </c>
+      <c r="N16">
+        <v>675.05159</v>
+      </c>
+      <c r="O16">
+        <v>0.5322126311204886</v>
+      </c>
+      <c r="P16">
+        <v>0.5322126311204886</v>
+      </c>
+      <c r="Q16">
+        <v>5437.254935621698</v>
+      </c>
+      <c r="R16">
+        <v>48935.29442059528</v>
+      </c>
+      <c r="S16">
+        <v>0.05625583444033775</v>
+      </c>
+      <c r="T16">
+        <v>0.05625583444033776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H17">
+        <v>72.491192</v>
+      </c>
+      <c r="I17">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J17">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>35.56644499999999</v>
+      </c>
+      <c r="N17">
+        <v>106.699335</v>
+      </c>
+      <c r="O17">
+        <v>0.08412206512861695</v>
+      </c>
+      <c r="P17">
+        <v>0.08412206512861695</v>
+      </c>
+      <c r="Q17">
+        <v>859.4179977508131</v>
+      </c>
+      <c r="R17">
+        <v>7734.761979757319</v>
+      </c>
+      <c r="S17">
+        <v>0.008891853916904535</v>
+      </c>
+      <c r="T17">
+        <v>0.008891853916904537</v>
       </c>
     </row>
   </sheetData>
